--- a/inst/extdata/nlcd_characteristics.xlsx
+++ b/inst/extdata/nlcd_characteristics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PackageDev\desertHydro\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08941EEA-ACBB-4F3E-98A8-714A983D95B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC5E250-0ED5-4A4C-848E-F80CE910A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37196CD6-A0BB-40E6-A2E0-55CCF12E2214}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>LandCoverType</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Grassland/Herbaceous</t>
+  </si>
+  <si>
+    <t>infiltration_cmhr</t>
   </si>
 </sst>
 </file>
@@ -437,19 +440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A591545C-329D-40A7-AD0F-D32535594E17}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +463,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -470,8 +477,11 @@
       <c r="C2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -481,8 +491,11 @@
       <c r="C3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -492,8 +505,11 @@
       <c r="C4">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -503,8 +519,11 @@
       <c r="C5">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -514,8 +533,11 @@
       <c r="C6">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -525,8 +547,11 @@
       <c r="C7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -535,6 +560,9 @@
       </c>
       <c r="C8">
         <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
